--- a/biology/Médecine/Frédéric_Jules_Sichel/Frédéric_Jules_Sichel.xlsx
+++ b/biology/Médecine/Frédéric_Jules_Sichel/Frédéric_Jules_Sichel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Jules_Sichel</t>
+          <t>Frédéric_Jules_Sichel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frédéric Jules Sichel est un médecin et un entomologiste français, né le 14 mai 1802 à Francfort-sur-le-Main et mort le 11 novembre 1868 à Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Jules_Sichel</t>
+          <t>Frédéric_Jules_Sichel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son titre de docteur en 1833 avec une thèse intitulée Propositions générales sur l'ophthalmologie, suivies de l'histoire de l'ophthalmie rhumatismale.
 Après des études en Allemagne, il s'installe à Paris en 1829. Il y ouvre la première clinique d'ophtalmologie en 1832 et y forme entre autres plusieurs ophtalmologues dont Charles Deval (1806-1862) et le docteur Charles de Hübsch (1824-1879), tous deux natifs de Constantinople. Il s'intéresse aux langues orientales, à l'archéologie et à l'entomologie, il se spécialise notamment sur les hyménoptères.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Jules_Sichel</t>
+          <t>Frédéric_Jules_Sichel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traité de l'ophthalmie, la cataracte et l'amaurose, pour servir de supplément au Traité des maladies des yeux de Weller (G. Baillière, Paris, 1837).
 Mémoire sur le glaucome (imprimerie de N.-J. Gregoir, Bruxelles, 1842).
